--- a/Practica_Clase/Math/Planilla de Métricas_Vector.xlsx
+++ b/Practica_Clase/Math/Planilla de Métricas_Vector.xlsx
@@ -796,53 +796,103 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -852,56 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1461,29 +1461,29 @@
       <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1509,15 +1509,15 @@
       <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="14"/>
       <c r="P3" s="9"/>
     </row>
@@ -1536,15 +1536,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C4),ISBLANK(D4)),"Completar",IF(D4&gt;=C4,D4-C4,"Error")),"Error")</f>
         <v>7.6388888888888618E-3</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="15"/>
       <c r="P4" s="11"/>
     </row>
@@ -1568,12 +1568,12 @@
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1599,15 +1599,15 @@
       <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="14"/>
       <c r="P7" s="9"/>
     </row>
@@ -1620,15 +1620,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C8),ISBLANK(D8)),"Completar",IF(D8&gt;=C8,D8-C8,"Error")),"Error")</f>
         <v>Completar</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="15"/>
       <c r="P8" s="11"/>
     </row>
@@ -1652,50 +1652,50 @@
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="62" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64" t="s">
+      <c r="G11" s="82"/>
+      <c r="H11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="62" t="s">
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64" t="s">
+      <c r="L11" s="82"/>
+      <c r="M11" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="84" t="s">
         <v>2</v>
       </c>
       <c r="O11" s="14"/>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="18" t="s">
         <v>13</v>
       </c>
@@ -1728,8 +1728,8 @@
       <c r="L12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="14"/>
       <c r="P12" s="9"/>
     </row>
@@ -1739,11 +1739,11 @@
         <f t="shared" ref="B13:B20" si="0">ROW($B13)-12</f>
         <v>1</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="47">
         <v>10</v>
       </c>
@@ -1776,11 +1776,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="47">
         <v>10</v>
       </c>
@@ -1813,11 +1813,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="47">
         <v>10</v>
       </c>
@@ -1850,22 +1850,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="47">
         <v>10</v>
       </c>
       <c r="G16" s="48">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="20" t="str">
+      <c r="H16" s="49">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>Completar</v>
+        <v>4.8611111111111494E-3</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
@@ -1883,11 +1887,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="47">
         <v>5</v>
       </c>
@@ -1920,11 +1924,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="47">
         <v>8</v>
       </c>
@@ -1953,11 +1957,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="47">
         <v>8</v>
       </c>
@@ -1990,11 +1994,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="47">
         <v>5</v>
       </c>
@@ -2023,12 +2027,12 @@
     </row>
     <row r="21" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="26">
         <f>SUM(F13:F20)</f>
         <v>66</v>
@@ -2081,12 +2085,12 @@
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2163,33 +2167,33 @@
       <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="64"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="73">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="76">
         <f>M21</f>
         <v>0</v>
       </c>
-      <c r="F28" s="74"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="34"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
@@ -2200,16 +2204,16 @@
       <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="75">
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="74">
         <f>IF(M21=0,0,IFERROR(M21/(N21*24),"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="36"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
@@ -2220,16 +2224,16 @@
       <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="73">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="76">
         <f>IF(K21=0,0,IFERROR(ROUNDUP(K21/(M21/100),0),"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F30" s="74"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -2240,16 +2244,16 @@
       <c r="N30" s="39"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="79">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="55">
         <f>IF(K21=0,0,IFERROR(K21/M21,"Error"))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="80"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
@@ -2260,11 +2264,11 @@
       <c r="N31" s="39"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="43">
         <f>E4</f>
         <v>7.6388888888888618E-3</v>
@@ -2283,11 +2287,11 @@
       <c r="N32" s="39"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="43" t="str">
         <f>E8</f>
         <v>Completar</v>
@@ -2306,11 +2310,11 @@
       <c r="N33" s="39"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="43" t="str">
         <f>E25</f>
         <v>Completar</v>
@@ -2329,11 +2333,11 @@
       <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="43">
         <f>L21</f>
         <v>0</v>
@@ -2352,11 +2356,11 @@
       <c r="N35" s="39"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="43" t="str">
         <f>J21</f>
         <v>Error</v>
@@ -2375,16 +2379,16 @@
       <c r="N36" s="39"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="81" t="str">
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="60" t="str">
         <f>IF(COUNTIF(E32:E36,"Error")=0,SUM(E32:E36),"Error")</f>
         <v>Error</v>
       </c>
-      <c r="F37" s="82"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="40"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
@@ -2427,6 +2431,31 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="41">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E37:F37"/>
@@ -2443,31 +2472,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
